--- a/assets/xls/50-pcs-2020-16.6.xlsx
+++ b/assets/xls/50-pcs-2020-16.6.xlsx
@@ -997,7 +997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>

--- a/assets/xls/50-pcs-2020-16.6.xlsx
+++ b/assets/xls/50-pcs-2020-16.6.xlsx
@@ -1333,7 +1333,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
         <v>144</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>

--- a/assets/xls/50-pcs-2020-16.6.xlsx
+++ b/assets/xls/50-pcs-2020-16.6.xlsx
@@ -927,7 +927,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -941,7 +941,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -955,7 +955,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -969,7 +969,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -983,7 +983,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
